--- a/documents/blackbox_design/测试用例和bug.xlsx
+++ b/documents/blackbox_design/测试用例和bug.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BEB2CF-D773-4CA2-9F7C-953E8202502F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74E393D-3E78-4870-9498-090B33539FAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-3233" windowWidth="28996" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-3233" windowWidth="28996" windowHeight="15795" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="125">
   <si>
     <t>测试用例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -472,6 +474,54 @@
   </si>
   <si>
     <t>描述为空时，应该允许跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z1A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z1A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z1A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z1B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z1B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z1B3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z1B4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z2A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z3A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z4A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是问答题的默认答案不应该被下载，在弱测试里没问题，属于别的流程中的bug</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -799,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="I7" sqref="A1:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1708,4 +1758,199 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF13FBDF-F6D7-4CB1-9204-7B391DF7C89A}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443D5AC3-B404-4952-8D9D-43B561232558}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documents/blackbox_design/测试用例和bug.xlsx
+++ b/documents/blackbox_design/测试用例和bug.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74E393D-3E78-4870-9498-090B33539FAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6774EE-0DB0-4E0D-9D6C-CAFA6A9C5D42}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-3233" windowWidth="28996" windowHeight="15795" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="15390" windowHeight="9533" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="155">
   <si>
     <t>测试用例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -522,6 +522,126 @@
   </si>
   <si>
     <t>但是问答题的默认答案不应该被下载，在弱测试里没问题，属于别的流程中的bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X2A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X2A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X2B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X2B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X2B3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞数+1，变成蓝色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞数-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复不应该是空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WR6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X3A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WR7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X3B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WR8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X3B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以选中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原先的空被消选，新的选项被选中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WR9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X3C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WR10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X3C2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以消选自己或者选中新的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WR11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X3D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WR12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X3D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法提交</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -849,17 +969,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="58" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="I7" sqref="A1:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.1328125" customWidth="1"/>
+    <col min="6" max="6" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -879,7 +999,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -893,7 +1013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -913,7 +1033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -936,7 +1056,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -956,7 +1076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -976,7 +1096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1010,18 +1130,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FC9AAB-E951-4473-BDC3-A9331F072908}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView zoomScale="129" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1161,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1055,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1075,7 +1195,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1095,7 +1215,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1112,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1129,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1146,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1166,7 +1286,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1183,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1203,7 +1323,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1223,7 +1343,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1243,7 +1363,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1266,7 +1386,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1289,7 +1409,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -1309,7 +1429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -1332,7 +1452,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -1355,7 +1475,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -1378,7 +1498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -1401,7 +1521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -1418,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -1438,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -1458,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -1478,7 +1598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -1498,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -1518,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -1541,7 +1661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>98</v>
       </c>
@@ -1564,7 +1684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -1581,7 +1701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>100</v>
       </c>
@@ -1598,7 +1718,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>101</v>
       </c>
@@ -1615,7 +1735,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -1629,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>105</v>
       </c>
@@ -1646,12 +1766,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>47</v>
       </c>
@@ -1674,7 +1794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>48</v>
       </c>
@@ -1694,7 +1814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -1714,7 +1834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>50</v>
       </c>
@@ -1734,7 +1854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>61</v>
       </c>
@@ -1764,13 +1884,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF13FBDF-F6D7-4CB1-9204-7B391DF7C89A}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1790,7 +1910,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1804,7 +1924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1818,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1832,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1846,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1860,7 +1980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1874,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1888,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1902,7 +2022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1916,7 +2036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1942,15 +2062,208 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443D5AC3-B404-4952-8D9D-43B561232558}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>